--- a/ReportGenerator/ReportGenerator/Templates/template.xlsx
+++ b/ReportGenerator/ReportGenerator/Templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\(461)Report Generator\ReportGenerator\ReportGenerator\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D341DB04-4705-4576-8805-07741FFEC2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4945A7D3-ADF8-4449-9D53-39745A0A1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -178,19 +178,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -207,11 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -227,23 +214,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -256,6 +228,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,130 +517,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -667,15 +642,14 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -683,15 +657,14 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -699,11 +672,10 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -711,11 +683,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -723,11 +694,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -735,11 +705,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -747,412 +716,370 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+  <mergeCells count="5">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/ReportGenerator/ReportGenerator/Templates/template.xlsx
+++ b/ReportGenerator/ReportGenerator/Templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\(461)Report Generator\ReportGenerator\ReportGenerator\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4945A7D3-ADF8-4449-9D53-39745A0A1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D678362-83B1-4D28-90CC-BF94F4CC8C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,8 +1081,8 @@
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A5:I5"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
